--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd34-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd34-Sele.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>278.978638</v>
+        <v>171.4863125</v>
       </c>
       <c r="H2">
-        <v>557.957276</v>
+        <v>342.972625</v>
       </c>
       <c r="I2">
-        <v>0.5355226889678238</v>
+        <v>0.6883220549653215</v>
       </c>
       <c r="J2">
-        <v>0.4392497582540043</v>
+        <v>0.6156469349130842</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N2">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O2">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P2">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q2">
-        <v>4201.45734528932</v>
+        <v>1263.7594626805</v>
       </c>
       <c r="R2">
-        <v>16805.82938115728</v>
+        <v>5055.037850722</v>
       </c>
       <c r="S2">
-        <v>0.3993458590450083</v>
+        <v>0.5129794748001976</v>
       </c>
       <c r="T2">
-        <v>0.2906052769795024</v>
+        <v>0.406980605374364</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>278.978638</v>
+        <v>171.4863125</v>
       </c>
       <c r="H3">
-        <v>557.957276</v>
+        <v>342.972625</v>
       </c>
       <c r="I3">
-        <v>0.5355226889678238</v>
+        <v>0.6883220549653215</v>
       </c>
       <c r="J3">
-        <v>0.4392497582540043</v>
+        <v>0.6156469349130842</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.33124</v>
       </c>
       <c r="O3">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P3">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q3">
-        <v>30.80296135037333</v>
+        <v>18.93437538416666</v>
       </c>
       <c r="R3">
-        <v>184.81776810224</v>
+        <v>113.606252305</v>
       </c>
       <c r="S3">
-        <v>0.002927801962665875</v>
+        <v>0.007685755262032173</v>
       </c>
       <c r="T3">
-        <v>0.003195856477651947</v>
+        <v>0.009146428316218822</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>278.978638</v>
+        <v>171.4863125</v>
       </c>
       <c r="H4">
-        <v>557.957276</v>
+        <v>342.972625</v>
       </c>
       <c r="I4">
-        <v>0.5355226889678238</v>
+        <v>0.6883220549653215</v>
       </c>
       <c r="J4">
-        <v>0.4392497582540043</v>
+        <v>0.6156469349130842</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N4">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O4">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P4">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q4">
-        <v>15.22525916885</v>
+        <v>14.5494132114375</v>
       </c>
       <c r="R4">
-        <v>91.3515550131</v>
+        <v>87.29647926862501</v>
       </c>
       <c r="S4">
-        <v>0.001447151238792025</v>
+        <v>0.00590583142461595</v>
       </c>
       <c r="T4">
-        <v>0.00157964497585909</v>
+        <v>0.007028231049688627</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>278.978638</v>
+        <v>171.4863125</v>
       </c>
       <c r="H5">
-        <v>557.957276</v>
+        <v>342.972625</v>
       </c>
       <c r="I5">
-        <v>0.5355226889678238</v>
+        <v>0.6883220549653215</v>
       </c>
       <c r="J5">
-        <v>0.4392497582540043</v>
+        <v>0.6156469349130842</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N5">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O5">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P5">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q5">
-        <v>1386.66759785145</v>
+        <v>398.484459219375</v>
       </c>
       <c r="R5">
-        <v>8320.005587108697</v>
+        <v>2390.90675531625</v>
       </c>
       <c r="S5">
-        <v>0.1318018767213576</v>
+        <v>0.1617509934784759</v>
       </c>
       <c r="T5">
-        <v>0.1438689798209908</v>
+        <v>0.1924916701728128</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>172.715382</v>
       </c>
       <c r="I6">
-        <v>0.1105138449044318</v>
+        <v>0.2310851226340305</v>
       </c>
       <c r="J6">
-        <v>0.1359695321730117</v>
+        <v>0.310029686890149</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N6">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O6">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P6">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q6">
-        <v>867.0392776911601</v>
+        <v>424.272342149712</v>
       </c>
       <c r="R6">
-        <v>5202.23566614696</v>
+        <v>2545.634052898272</v>
       </c>
       <c r="S6">
-        <v>0.08241153407485005</v>
+        <v>0.1722186932524143</v>
       </c>
       <c r="T6">
-        <v>0.08995671099507369</v>
+        <v>0.2049487498421325</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>172.715382</v>
       </c>
       <c r="I7">
-        <v>0.1105138449044318</v>
+        <v>0.2310851226340305</v>
       </c>
       <c r="J7">
-        <v>0.1359695321730117</v>
+        <v>0.310029686890149</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,10 +877,10 @@
         <v>0.33124</v>
       </c>
       <c r="O7">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P7">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q7">
         <v>6.356693681519999</v>
@@ -889,10 +889,10 @@
         <v>57.21024313368</v>
       </c>
       <c r="S7">
-        <v>0.0006041997074607392</v>
+        <v>0.002580280094833413</v>
       </c>
       <c r="T7">
-        <v>0.0009892756956445361</v>
+        <v>0.004605991106641093</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>172.715382</v>
       </c>
       <c r="I8">
-        <v>0.1105138449044318</v>
+        <v>0.2310851226340305</v>
       </c>
       <c r="J8">
-        <v>0.1359695321730117</v>
+        <v>0.310029686890149</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N8">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O8">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P8">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q8">
-        <v>3.14198065755</v>
+        <v>4.884563718342</v>
       </c>
       <c r="R8">
-        <v>28.27782591795</v>
+        <v>43.961073465078</v>
       </c>
       <c r="S8">
-        <v>0.0002986432710542493</v>
+        <v>0.001982719817225739</v>
       </c>
       <c r="T8">
-        <v>0.0004889782733649369</v>
+        <v>0.003539301746112338</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>172.715382</v>
       </c>
       <c r="I9">
-        <v>0.1105138449044318</v>
+        <v>0.2310851226340305</v>
       </c>
       <c r="J9">
-        <v>0.1359695321730117</v>
+        <v>0.310029686890149</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N9">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O9">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P9">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q9">
-        <v>286.161484844508</v>
+        <v>133.78015343574</v>
       </c>
       <c r="R9">
-        <v>2575.453363600572</v>
+        <v>1204.02138092166</v>
       </c>
       <c r="S9">
-        <v>0.02719946785106677</v>
+        <v>0.05430342946955698</v>
       </c>
       <c r="T9">
-        <v>0.04453456720892858</v>
+        <v>0.09693564419526303</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2011773333333333</v>
+        <v>0.04101466666666666</v>
       </c>
       <c r="H10">
-        <v>0.6035320000000001</v>
+        <v>0.123044</v>
       </c>
       <c r="I10">
-        <v>0.0003861766165266134</v>
+        <v>0.0001646271310645721</v>
       </c>
       <c r="J10">
-        <v>0.0004751282875976972</v>
+        <v>0.0002208679525354116</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N10">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O10">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P10">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q10">
-        <v>3.029758804826667</v>
+        <v>0.3022554532373333</v>
       </c>
       <c r="R10">
-        <v>18.17855282896</v>
+        <v>1.813532719424</v>
       </c>
       <c r="S10">
-        <v>0.0002879766550454805</v>
+        <v>0.0001226901544446694</v>
       </c>
       <c r="T10">
-        <v>0.0003143423189735285</v>
+        <v>0.0001460073427367075</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.2011773333333333</v>
+        <v>0.04101466666666666</v>
       </c>
       <c r="H11">
-        <v>0.6035320000000001</v>
+        <v>0.123044</v>
       </c>
       <c r="I11">
-        <v>0.0003861766165266134</v>
+        <v>0.0001646271310645721</v>
       </c>
       <c r="J11">
-        <v>0.0004751282875976972</v>
+        <v>0.0002208679525354116</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1125,22 @@
         <v>0.33124</v>
       </c>
       <c r="O11">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P11">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q11">
-        <v>0.02221265996444444</v>
+        <v>0.004528566062222222</v>
       </c>
       <c r="R11">
-        <v>0.19991393968</v>
+        <v>0.04075709456</v>
       </c>
       <c r="S11">
-        <v>2.111299257892356E-06</v>
+        <v>1.838214873002351E-06</v>
       </c>
       <c r="T11">
-        <v>3.456898466308798E-06</v>
+        <v>3.281349716295371E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2011773333333333</v>
+        <v>0.04101466666666666</v>
       </c>
       <c r="H12">
-        <v>0.6035320000000001</v>
+        <v>0.123044</v>
       </c>
       <c r="I12">
-        <v>0.0003861766165266134</v>
+        <v>0.0001646271310645721</v>
       </c>
       <c r="J12">
-        <v>0.0004751282875976972</v>
+        <v>0.0002208679525354116</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,28 +1181,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N12">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O12">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P12">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q12">
-        <v>0.01097925296666667</v>
+        <v>0.003479807364</v>
       </c>
       <c r="R12">
-        <v>0.09881327670000002</v>
+        <v>0.031318266276</v>
       </c>
       <c r="S12">
-        <v>1.043571039120958E-06</v>
+        <v>1.412507527503971E-06</v>
       </c>
       <c r="T12">
-        <v>1.708672567915735E-06</v>
+        <v>2.521430569795147E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2011773333333333</v>
+        <v>0.04101466666666666</v>
       </c>
       <c r="H13">
-        <v>0.6035320000000001</v>
+        <v>0.123044</v>
       </c>
       <c r="I13">
-        <v>0.0003861766165266134</v>
+        <v>0.0001646271310645721</v>
       </c>
       <c r="J13">
-        <v>0.0004751282875976972</v>
+        <v>0.0002208679525354116</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N13">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O13">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P13">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q13">
-        <v>0.9999550200524446</v>
+        <v>0.09530619108000001</v>
       </c>
       <c r="R13">
-        <v>8.999595180472001</v>
+        <v>0.8577557197200001</v>
       </c>
       <c r="S13">
-        <v>9.504509118411948E-05</v>
+        <v>3.868625421939644E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001556203975899442</v>
+        <v>6.905782951261367E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.610064</v>
+        <v>18.830862</v>
       </c>
       <c r="H14">
-        <v>27.220128</v>
+        <v>37.661724</v>
       </c>
       <c r="I14">
-        <v>0.0261256493420266</v>
+        <v>0.07558444426057843</v>
       </c>
       <c r="J14">
-        <v>0.02142894296380329</v>
+        <v>0.06760401050708505</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N14">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O14">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P14">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q14">
-        <v>204.96946924896</v>
+        <v>138.773058304176</v>
       </c>
       <c r="R14">
-        <v>819.87787699584</v>
+        <v>555.092233216704</v>
       </c>
       <c r="S14">
-        <v>0.01948221820388105</v>
+        <v>0.05633012663208906</v>
       </c>
       <c r="T14">
-        <v>0.01417727338115671</v>
+        <v>0.04469042167129873</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.610064</v>
+        <v>18.830862</v>
       </c>
       <c r="H15">
-        <v>27.220128</v>
+        <v>37.661724</v>
       </c>
       <c r="I15">
-        <v>0.0261256493420266</v>
+        <v>0.07558444426057843</v>
       </c>
       <c r="J15">
-        <v>0.02142894296380329</v>
+        <v>0.06760401050708505</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.33124</v>
       </c>
       <c r="O15">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P15">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q15">
-        <v>1.50273253312</v>
+        <v>2.07917824296</v>
       </c>
       <c r="R15">
-        <v>9.01639519872</v>
+        <v>12.47506945776</v>
       </c>
       <c r="S15">
-        <v>0.000142833775291455</v>
+        <v>0.0008439705454923798</v>
       </c>
       <c r="T15">
-        <v>0.000155910902381198</v>
+        <v>0.001004366627894042</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.610064</v>
+        <v>18.830862</v>
       </c>
       <c r="H16">
-        <v>27.220128</v>
+        <v>37.661724</v>
       </c>
       <c r="I16">
-        <v>0.0261256493420266</v>
+        <v>0.07558444426057843</v>
       </c>
       <c r="J16">
-        <v>0.02142894296380329</v>
+        <v>0.06760401050708505</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N16">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O16">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P16">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q16">
-        <v>0.7427692428</v>
+        <v>1.597666824666</v>
       </c>
       <c r="R16">
-        <v>4.4566154568</v>
+        <v>9.586000947996</v>
       </c>
       <c r="S16">
-        <v>7.059974598355716E-05</v>
+        <v>0.0006485176276223583</v>
       </c>
       <c r="T16">
-        <v>7.706349623343087E-05</v>
+        <v>0.0007717680033547964</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.610064</v>
+        <v>18.830862</v>
       </c>
       <c r="H17">
-        <v>27.220128</v>
+        <v>37.661724</v>
       </c>
       <c r="I17">
-        <v>0.0261256493420266</v>
+        <v>0.07558444426057843</v>
       </c>
       <c r="J17">
-        <v>0.02142894296380329</v>
+        <v>0.06760401050708505</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N17">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O17">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P17">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q17">
-        <v>67.64903179964801</v>
+        <v>43.75746233802001</v>
       </c>
       <c r="R17">
-        <v>405.894190797888</v>
+        <v>262.54477402812</v>
       </c>
       <c r="S17">
-        <v>0.006429997616870532</v>
+        <v>0.01776182945537463</v>
       </c>
       <c r="T17">
-        <v>0.007018695184031951</v>
+        <v>0.02113745420453748</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>170.2029266666667</v>
+        <v>1.059785333333333</v>
       </c>
       <c r="H18">
-        <v>510.60878</v>
+        <v>3.179356</v>
       </c>
       <c r="I18">
-        <v>0.3267186678240456</v>
+        <v>0.004253829986939094</v>
       </c>
       <c r="J18">
-        <v>0.4019748336024425</v>
+        <v>0.005707046667055495</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N18">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O18">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P18">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q18">
-        <v>2563.279904009734</v>
+        <v>7.810032905162667</v>
       </c>
       <c r="R18">
-        <v>15379.6794240584</v>
+        <v>46.86019743097601</v>
       </c>
       <c r="S18">
-        <v>0.2436381310373827</v>
+        <v>0.003170212921187431</v>
       </c>
       <c r="T18">
-        <v>0.2659443873621353</v>
+        <v>0.003772709934446274</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>170.2029266666667</v>
+        <v>1.059785333333333</v>
       </c>
       <c r="H19">
-        <v>510.60878</v>
+        <v>3.179356</v>
       </c>
       <c r="I19">
-        <v>0.3267186678240456</v>
+        <v>0.004253829986939094</v>
       </c>
       <c r="J19">
-        <v>0.4019748336024425</v>
+        <v>0.005707046667055495</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1621,22 +1621,22 @@
         <v>0.33124</v>
       </c>
       <c r="O19">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P19">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q19">
-        <v>18.79267247635556</v>
+        <v>0.1170144312711111</v>
       </c>
       <c r="R19">
-        <v>169.1340522872</v>
+        <v>1.05312988144</v>
       </c>
       <c r="S19">
-        <v>0.001786231613712813</v>
+        <v>4.749796402725254E-05</v>
       </c>
       <c r="T19">
-        <v>0.002924654713363677</v>
+        <v>8.478738425768008E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>170.2029266666667</v>
+        <v>1.059785333333333</v>
       </c>
       <c r="H20">
-        <v>510.60878</v>
+        <v>3.179356</v>
       </c>
       <c r="I20">
-        <v>0.3267186678240456</v>
+        <v>0.004253829986939094</v>
       </c>
       <c r="J20">
-        <v>0.4019748336024425</v>
+        <v>0.005707046667055495</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1677,28 +1677,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N20">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O20">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P20">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q20">
-        <v>9.288824722833334</v>
+        <v>0.089915367036</v>
       </c>
       <c r="R20">
-        <v>83.59942250550002</v>
+        <v>0.809238303324</v>
       </c>
       <c r="S20">
-        <v>0.0008828969054315009</v>
+        <v>3.649803552074799E-05</v>
       </c>
       <c r="T20">
-        <v>0.00144559561932577</v>
+        <v>6.515169704058403E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>170.2029266666667</v>
+        <v>1.059785333333333</v>
       </c>
       <c r="H21">
-        <v>510.60878</v>
+        <v>3.179356</v>
       </c>
       <c r="I21">
-        <v>0.3267186678240456</v>
+        <v>0.004253829986939094</v>
       </c>
       <c r="J21">
-        <v>0.4019748336024425</v>
+        <v>0.005707046667055495</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N21">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O21">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P21">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q21">
-        <v>845.9962567748757</v>
+        <v>2.46263377692</v>
       </c>
       <c r="R21">
-        <v>7613.966310973881</v>
+        <v>22.16370399228</v>
       </c>
       <c r="S21">
-        <v>0.08041140826751857</v>
+        <v>0.0009996210662036621</v>
       </c>
       <c r="T21">
-        <v>0.1316601959076177</v>
+        <v>0.001784397651310957</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.3818393333333334</v>
+        <v>0.146971</v>
       </c>
       <c r="H22">
-        <v>1.145518</v>
+        <v>0.440913</v>
       </c>
       <c r="I22">
-        <v>0.0007329723451454655</v>
+        <v>0.0005899210220658763</v>
       </c>
       <c r="J22">
-        <v>0.0009018047191405574</v>
+        <v>0.0007914530700907476</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N22">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O22">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P22">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q22">
-        <v>5.750553817506668</v>
+        <v>1.083095142008</v>
       </c>
       <c r="R22">
-        <v>34.50332290504</v>
+        <v>6.498570852048</v>
       </c>
       <c r="S22">
-        <v>0.000546586497376094</v>
+        <v>0.0004396450380893217</v>
       </c>
       <c r="T22">
-        <v>0.0005966291506430784</v>
+        <v>0.0005231993068176416</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.3818393333333334</v>
+        <v>0.146971</v>
       </c>
       <c r="H23">
-        <v>1.145518</v>
+        <v>0.440913</v>
       </c>
       <c r="I23">
-        <v>0.0007329723451454655</v>
+        <v>0.0005899210220658763</v>
       </c>
       <c r="J23">
-        <v>0.0009018047191405574</v>
+        <v>0.0007914530700907476</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>0.33124</v>
       </c>
       <c r="O23">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P23">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q23">
-        <v>0.04216015359111111</v>
+        <v>0.01622755801333333</v>
       </c>
       <c r="R23">
-        <v>0.37944138232</v>
+        <v>0.14604802212</v>
       </c>
       <c r="S23">
-        <v>4.007295890362626E-06</v>
+        <v>6.587016305549928E-06</v>
       </c>
       <c r="T23">
-        <v>6.561274990106774E-06</v>
+        <v>1.175831204659261E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.3818393333333334</v>
+        <v>0.146971</v>
       </c>
       <c r="H24">
-        <v>1.145518</v>
+        <v>0.440913</v>
       </c>
       <c r="I24">
-        <v>0.0007329723451454655</v>
+        <v>0.0005899210220658763</v>
       </c>
       <c r="J24">
-        <v>0.0009018047191405574</v>
+        <v>0.0007914530700907476</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1925,28 +1925,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N24">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O24">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P24">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q24">
-        <v>0.02083888161666667</v>
+        <v>0.012469460553</v>
       </c>
       <c r="R24">
-        <v>0.18754993455</v>
+        <v>0.112225144977</v>
       </c>
       <c r="S24">
-        <v>1.980722496225157E-06</v>
+        <v>5.061546531926452E-06</v>
       </c>
       <c r="T24">
-        <v>3.24310091702461E-06</v>
+        <v>9.035235499659371E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.3818393333333334</v>
+        <v>0.146971</v>
       </c>
       <c r="H25">
-        <v>1.145518</v>
+        <v>0.440913</v>
       </c>
       <c r="I25">
-        <v>0.0007329723451454655</v>
+        <v>0.0005899210220658763</v>
       </c>
       <c r="J25">
-        <v>0.0009018047191405574</v>
+        <v>0.0007914530700907476</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N25">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O25">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P25">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q25">
-        <v>1.897938261203111</v>
+        <v>0.34151798241</v>
       </c>
       <c r="R25">
-        <v>17.081444350828</v>
+        <v>3.07366184169</v>
       </c>
       <c r="S25">
-        <v>0.0001803978293827837</v>
+        <v>0.0001386274211390783</v>
       </c>
       <c r="T25">
-        <v>0.0002953711925903476</v>
+        <v>0.000247460215726854</v>
       </c>
     </row>
   </sheetData>
